--- a/mail_script.xlsx
+++ b/mail_script.xlsx
@@ -15,20 +15,97 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
-    <t>col1</t>
-  </si>
-  <si>
-    <t>col2</t>
+    <t>full_mail_scripts</t>
   </si>
   <si>
     <t>안녕하세요.
-한국생산성본부 신백균입니다.
-어쩌구 저쩌구 테스트 메시지입니다.</t>
+한국생산성본부 신백균 위원입니다.
+하기의 교육과정과 관련하여 강의 정보 안내 및 일정표, 수강생 명단을 송부하오니
+꼭 확인해 주시기 바랍니다.
+1. 과정명 : 외자구매(수입)종합
+2. 일정 : 09.17(화) ~ 09.20(금)
+3. 강의장소 : KPC 천안 본부
+4. 강의시간: 
+  09.17(화) 09:30 ~ 17:30 : 김종원(w) 지도위원님
+  09.18(수) 09:30 ~ 17:30 : 김중년 지도위원님
+  09.19(목) 09:30 ~ 17:30 : 박호신 지도위원님
+  09.20(금) 09:30 ~ 17:30 : 정일환 지도위원님
+5. 준비사항 : 교안 파일 및 참고 자료는 USB에 담아서 준비헤주시기 바랍니다.
+6. 수강생명단 : 첨부파일 참조
+좋은 강의부탁드립니다.
+감사합니다.
+신백균 드림.</t>
   </si>
   <si>
-    <t>좋은 강의부탁드립니다.
+    <t>안녕하세요.
+한국생산성본부 신백균 위원입니다.
+하기의 교육과정과 관련하여 강의 정보 안내 및 일정표, 수강생 명단을 송부하오니
+꼭 확인해 주시기 바랍니다.
+1. 과정명 : 구매원가계산 및 분석
+2. 일정 : 09.18(수) ~ 09.20(금)
+3. 강의장소 : KPC 서울 본부 306호 강의장
+4. 강의시간: 
+  09.18(수) 14:00 ~ 18:00
+  09.19(목) 09:30 ~ 17:30
+  09.20(금) 09:30 ~ 17:30
+5. 준비사항 : 교안 파일 및 참고 자료는 USB에 담아서 준비헤주시기 바랍니다.
+6. 수강생명단 : 첨부파일 참조
+좋은 강의부탁드립니다.
+감사합니다.
+신백균 드림.</t>
+  </si>
+  <si>
+    <t>안녕하세요.
+한국생산성본부 신백균 위원입니다.
+하기의 교육과정과 관련하여 강의 정보 안내 및 일정표, 수강생 명단을 송부하오니
+꼭 확인해 주시기 바랍니다.
+1. 과정명 : 전략적 재고운영 및 자재계획수립
+2. 일정 : 09.18(수) ~ 09.20(금)
+3. 강의장소 : KPC 서울 본부 307호 강의장
+4. 강의시간: 
+  09.18(수) 14:00 ~ 18:00
+  09.19(목) 09:30 ~ 17:30
+  09.20(금) 09:30 ~ 17:30
+5. 준비사항 : 교안 파일 및 참고 자료는 USB에 담아서 준비헤주시기 바랍니다.
+6. 수강생명단 : 첨부파일 참조
+좋은 강의부탁드립니다.
+감사합니다.
+신백균 드림.</t>
+  </si>
+  <si>
+    <t>안녕하세요.
+한국생산성본부 신백균 위원입니다.
+하기의 교육과정과 관련하여 강의 정보 안내 및 일정표, 수강생 명단을 송부하오니
+꼭 확인해 주시기 바랍니다.
+1. 과정명 : 구매전략수립 및 추진
+2. 일정 : 09.18(수) ~ 09.20(금)
+3. 강의장소 : KPC 대구 본부
+4. 강의시간: 
+  09.18(수) 14:00 ~ 18:00 : 최봉묵 지도위원님
+  09.19(목) 09:00 ~ 18:00 : 목진환 지도위원님
+  09.20(금) 09:00 ~ 18:00 : 목진환 지도위원님
+5. 준비사항 : 교안 파일 및 참고 자료는 USB에 담아서 준비헤주시기 바랍니다.
+6. 수강생명단 : 첨부파일 참조
+좋은 강의부탁드립니다.
+감사합니다.
+신백균 드림.</t>
+  </si>
+  <si>
+    <t>안녕하세요.
+한국생산성본부 신백균 위원입니다.
+하기의 교육과정과 관련하여 강의 정보 안내 및 일정표, 수강생 명단을 송부하오니
+꼭 확인해 주시기 바랍니다.
+1. 과정명 : 구매담당자 리스크관리능력향상
+2. 일정 : 09.19(목) ~ 09.20(금)
+3. 강의장소 : KPC 대전 본부
+4. 강의시간: 
+  09.19(목) 09:30 ~ 17:30 : 손영삼 지도위원님
+  09.20(금) 09:30 ~ 17:30 : 김종원(w) 지도위원님
+5. 준비사항 : 교안 파일 및 참고 자료는 USB에 담아서 준비헤주시기 바랍니다.
+6. 수강생명단 : 첨부파일 참조
+좋은 강의부탁드립니다.
 감사합니다.
 신백균 드림.</t>
   </si>
@@ -379,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -387,23 +464,49 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="n">
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/mail_script.xlsx
+++ b/mail_script.xlsx
@@ -115,7 +115,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -125,6 +125,10 @@
     </font>
     <font>
       <b val="1"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -154,10 +158,16 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -456,59 +466,63 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="2" min="2" width="70"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1" t="s">
+    <row customHeight="1" ht="70" r="1" spans="1:2">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row customHeight="1" ht="70" r="2" spans="1:2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row customHeight="1" ht="70" r="3" spans="1:2">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row customHeight="1" ht="70" r="4" spans="1:2">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row customHeight="1" ht="70" r="5" spans="1:2">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row customHeight="1" ht="70" r="6" spans="1:2">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
+    <row customHeight="1" ht="70" r="7" spans="1:2"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
